--- a/results/mp/logistic/corona/confidence/42/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,49 +40,58 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>anxiety</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>falling</t>
@@ -91,18 +100,15 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -130,193 +136,172 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>security</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>dear</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>stay</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>shopping</t>
   </si>
   <si>
     <t>grocery</t>
@@ -683,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,10 +676,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -752,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -770,31 +755,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L3">
+        <v>55</v>
+      </c>
+      <c r="M3">
+        <v>55</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
-      <c r="M3">
-        <v>45</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -802,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.773972602739726</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C4">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -820,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -844,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -852,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7105263157894737</v>
+        <v>0.7602739726027398</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -870,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -894,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -902,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6842105263157895</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -920,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.8983050847457628</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -944,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -952,13 +937,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6333333333333333</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -970,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -994,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1002,13 +987,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6153846153846154</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1020,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1044,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1052,37 +1037,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.8660714285714286</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1094,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1102,13 +1087,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5675675675675675</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1120,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="L10">
         <v>16</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10">
-        <v>0.839622641509434</v>
-      </c>
-      <c r="L10">
-        <v>89</v>
-      </c>
       <c r="M10">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1144,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1152,13 +1137,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5294117647058824</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1170,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.835509138381201</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1194,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1202,13 +1187,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5277777777777778</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1220,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1244,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1252,13 +1237,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4444444444444444</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C13">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1270,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1294,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1302,13 +1287,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4341085271317829</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C14">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="D14">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1320,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>292</v>
+        <v>102</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.8235294117647058</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1344,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1352,13 +1337,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4313725490196079</v>
+        <v>0.4515503875968992</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1370,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>29</v>
+        <v>283</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.81875</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L15">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="M15">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1394,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1402,13 +1387,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.423728813559322</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1420,31 +1405,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.8181818181818182</v>
+        <v>0.8</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1452,13 +1437,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3333333333333333</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1470,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.8170731707317073</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1494,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1502,13 +1487,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.325</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1520,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.7931034482758621</v>
+        <v>0.775</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1544,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1552,13 +1537,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.32</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1570,19 +1555,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.7890625</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L19">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1594,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1602,13 +1587,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2909090909090909</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1620,19 +1605,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1644,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1652,13 +1637,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2678571428571428</v>
+        <v>0.325</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1670,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.7727272727272727</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1694,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1702,13 +1687,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2550335570469799</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1720,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1744,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1752,13 +1737,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2363636363636364</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1770,19 +1755,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.7535211267605634</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L23">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1794,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1802,13 +1787,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1777777777777778</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1820,19 +1805,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>0.7301587301587301</v>
+        <v>0.7421875</v>
       </c>
       <c r="L24">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="M24">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1844,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1852,13 +1837,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1388888888888889</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1870,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <v>0.723404255319149</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1894,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1902,13 +1887,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.08847184986595175</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1920,19 +1905,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.7083333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1944,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1952,13 +1937,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06333333333333334</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1970,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K27">
         <v>0.6976744186046512</v>
@@ -2002,37 +1987,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01458198314970836</v>
+        <v>0.1072386058981233</v>
       </c>
       <c r="C28">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E28">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.6799999999999999</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>3041</v>
+        <v>333</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>0.6857142857142857</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2044,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2052,37 +2037,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01421127427759356</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>2081</v>
+        <v>284</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K29">
-        <v>0.6785714285714286</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2094,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2102,28 +2087,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01382886776145203</v>
+        <v>0.01590392729633236</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E30">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="F30">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1141</v>
+        <v>3032</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K30">
         <v>0.6666666666666666</v>
@@ -2152,324 +2137,372 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.00919175911251981</v>
+        <v>0.01558809636277752</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D31">
+        <v>59</v>
+      </c>
+      <c r="E31">
+        <v>0.44</v>
+      </c>
+      <c r="F31">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>2084</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="L31">
+        <v>23</v>
+      </c>
+      <c r="M31">
+        <v>23</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.0121317157712305</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>0.33</v>
+      </c>
+      <c r="F32">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1140</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32">
+        <v>0.65</v>
+      </c>
+      <c r="L32">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.01015550618851158</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>82</v>
+      </c>
+      <c r="E33">
+        <v>0.61</v>
+      </c>
+      <c r="F33">
+        <v>0.39</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>3119</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33">
+        <v>0.638235294117647</v>
+      </c>
+      <c r="L33">
+        <v>217</v>
+      </c>
+      <c r="M33">
+        <v>217</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L34">
+        <v>58</v>
+      </c>
+      <c r="M34">
+        <v>58</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35">
+        <v>0.6033898305084746</v>
+      </c>
+      <c r="L35">
+        <v>178</v>
+      </c>
+      <c r="M35">
+        <v>178</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="L36">
+        <v>38</v>
+      </c>
+      <c r="M36">
+        <v>38</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37">
+        <v>0.5774058577405857</v>
+      </c>
+      <c r="L37">
+        <v>138</v>
+      </c>
+      <c r="M37">
+        <v>138</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E31">
-        <v>0.61</v>
-      </c>
-      <c r="F31">
-        <v>0.39</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>3126</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L31">
+      <c r="K38">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L38">
+        <v>40</v>
+      </c>
+      <c r="M38">
+        <v>40</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L39">
         <v>16</v>
       </c>
-      <c r="M31">
+      <c r="M39">
         <v>16</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L32">
-        <v>220</v>
-      </c>
-      <c r="M32">
-        <v>220</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L33">
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="L40">
+        <v>13</v>
+      </c>
+      <c r="M40">
+        <v>13</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L41">
+        <v>15</v>
+      </c>
+      <c r="M41">
+        <v>15</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="L42">
         <v>18</v>
       </c>
-      <c r="M33">
+      <c r="M42">
         <v>18</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L34">
-        <v>18</v>
-      </c>
-      <c r="M34">
-        <v>18</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K35">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L35">
-        <v>14</v>
-      </c>
-      <c r="M35">
-        <v>14</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="L36">
-        <v>14</v>
-      </c>
-      <c r="M36">
-        <v>14</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K37">
-        <v>0.6</v>
-      </c>
-      <c r="L37">
-        <v>24</v>
-      </c>
-      <c r="M37">
-        <v>24</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K38">
-        <v>0.5899581589958159</v>
-      </c>
-      <c r="L38">
-        <v>141</v>
-      </c>
-      <c r="M38">
-        <v>141</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K39">
-        <v>0.5864406779661017</v>
-      </c>
-      <c r="L39">
-        <v>173</v>
-      </c>
-      <c r="M39">
-        <v>173</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K40">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="L40">
-        <v>19</v>
-      </c>
-      <c r="M40">
-        <v>19</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K41">
-        <v>0.574468085106383</v>
-      </c>
-      <c r="L41">
-        <v>54</v>
-      </c>
-      <c r="M41">
-        <v>54</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K42">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L42">
-        <v>40</v>
-      </c>
-      <c r="M42">
-        <v>40</v>
-      </c>
       <c r="N42">
         <v>1</v>
       </c>
@@ -2480,21 +2513,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K43">
-        <v>0.5555555555555556</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2506,15 +2539,15 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K44">
-        <v>0.5555555555555556</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L44">
         <v>15</v>
@@ -2532,21 +2565,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K45">
-        <v>0.5538461538461539</v>
+        <v>0.5</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2558,21 +2591,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K46">
-        <v>0.550561797752809</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L46">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M46">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2584,21 +2617,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K47">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2610,21 +2643,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K48">
-        <v>0.5</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2636,21 +2669,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K49">
-        <v>0.4901960784313725</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2667,68 +2700,68 @@
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K50">
-        <v>0.4642857142857143</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K51">
-        <v>0.3972602739726027</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K52">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2740,21 +2773,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K53">
-        <v>0.3823529411764706</v>
+        <v>0.3125</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2766,21 +2799,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K54">
-        <v>0.3777777777777778</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2792,21 +2825,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K55">
-        <v>0.3389830508474576</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L55">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2818,21 +2851,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K56">
-        <v>0.3157894736842105</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2844,47 +2877,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K57">
-        <v>0.2622950819672131</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="L57">
         <v>16</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K58">
-        <v>0.21875</v>
+        <v>0.0487012987012987</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2896,21 +2929,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>50</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K59">
-        <v>0.1805555555555556</v>
+        <v>0.02885682574916759</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2922,319 +2955,137 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>59</v>
+        <v>875</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K60">
-        <v>0.1775700934579439</v>
+        <v>0.02015677491601344</v>
       </c>
       <c r="L60">
+        <v>18</v>
+      </c>
+      <c r="M60">
         <v>19</v>
       </c>
-      <c r="M60">
-        <v>21</v>
-      </c>
       <c r="N60">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="O60">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>88</v>
+        <v>875</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K61">
-        <v>0.1209677419354839</v>
+        <v>0.01577784790154623</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>109</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K62">
-        <v>0.08024691358024691</v>
+        <v>0.01348547717842324</v>
       </c>
       <c r="L62">
         <v>13</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N62">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="O62">
-        <v>0.06999999999999995</v>
+        <v>0.24</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>149</v>
+        <v>951</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="K63">
-        <v>0.07142857142857142</v>
+        <v>0.01232227488151659</v>
       </c>
       <c r="L63">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>286</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="K64">
-        <v>0.04844290657439446</v>
+        <v>0.008502289077828646</v>
       </c>
       <c r="L64">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
-      <c r="J65" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K65">
-        <v>0.04096385542168675</v>
-      </c>
-      <c r="L65">
-        <v>17</v>
-      </c>
-      <c r="M65">
-        <v>18</v>
-      </c>
-      <c r="N65">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O65">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="66" spans="10:17">
-      <c r="J66" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K66">
-        <v>0.0178173719376392</v>
-      </c>
-      <c r="L66">
-        <v>16</v>
-      </c>
-      <c r="M66">
-        <v>19</v>
-      </c>
-      <c r="N66">
-        <v>0.84</v>
-      </c>
-      <c r="O66">
-        <v>0.16</v>
-      </c>
-      <c r="P66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17">
-      <c r="J67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K67">
-        <v>0.01514434453383814</v>
-      </c>
-      <c r="L67">
-        <v>32</v>
-      </c>
-      <c r="M67">
-        <v>62</v>
-      </c>
-      <c r="N67">
-        <v>0.52</v>
-      </c>
-      <c r="O67">
-        <v>0.48</v>
-      </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K68">
-        <v>0.01457399103139013</v>
-      </c>
-      <c r="L68">
-        <v>13</v>
-      </c>
-      <c r="M68">
-        <v>15</v>
-      </c>
-      <c r="N68">
-        <v>0.87</v>
-      </c>
-      <c r="O68">
-        <v>0.13</v>
-      </c>
-      <c r="P68" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K69">
-        <v>0.01450189155107188</v>
-      </c>
-      <c r="L69">
-        <v>46</v>
-      </c>
-      <c r="M69">
-        <v>75</v>
-      </c>
-      <c r="N69">
-        <v>0.61</v>
-      </c>
-      <c r="O69">
-        <v>0.39</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>3126</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K70">
-        <v>0.01349948078920041</v>
-      </c>
-      <c r="L70">
-        <v>13</v>
-      </c>
-      <c r="M70">
-        <v>18</v>
-      </c>
-      <c r="N70">
-        <v>0.72</v>
-      </c>
-      <c r="O70">
-        <v>0.28</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K71">
-        <v>0.006858262573481384</v>
-      </c>
-      <c r="L71">
-        <v>21</v>
-      </c>
-      <c r="M71">
-        <v>66</v>
-      </c>
-      <c r="N71">
-        <v>0.32</v>
-      </c>
-      <c r="O71">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>3041</v>
+        <v>3032</v>
       </c>
     </row>
   </sheetData>
